--- a/data/pca/factorExposure/factorExposure_2012-12-27.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-12-27.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.0005602811540519136</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.00180067391246909</v>
+      </c>
+      <c r="C2">
+        <v>-0.03163283836590849</v>
+      </c>
+      <c r="D2">
+        <v>0.005556719234943185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.0006411114415054142</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.006421310288395588</v>
+      </c>
+      <c r="C4">
+        <v>-0.08415967491968231</v>
+      </c>
+      <c r="D4">
+        <v>0.0789041931424278</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.0001149674249925783</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01447469016820028</v>
+      </c>
+      <c r="C6">
+        <v>-0.1139885436414337</v>
+      </c>
+      <c r="D6">
+        <v>0.03287981664179321</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.001725008308937908</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.00515493024944525</v>
+      </c>
+      <c r="C7">
+        <v>-0.05819194470711558</v>
+      </c>
+      <c r="D7">
+        <v>0.03077957437541681</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.0009327699451525603</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.005861723499417394</v>
+      </c>
+      <c r="C8">
+        <v>-0.03780778152952046</v>
+      </c>
+      <c r="D8">
+        <v>0.04063617825170246</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.003310288529942678</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.00457997854395085</v>
+      </c>
+      <c r="C9">
+        <v>-0.07039663407652329</v>
+      </c>
+      <c r="D9">
+        <v>0.07275760011452236</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.002673255496797521</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.005415027554528144</v>
+      </c>
+      <c r="C10">
+        <v>-0.05794196469469411</v>
+      </c>
+      <c r="D10">
+        <v>-0.1988895920290916</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.002687205778653023</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.005877022816256637</v>
+      </c>
+      <c r="C11">
+        <v>-0.07976604414635934</v>
+      </c>
+      <c r="D11">
+        <v>0.0603223770912839</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.0004513007982152809</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.004195349314682528</v>
+      </c>
+      <c r="C12">
+        <v>-0.06412559275761669</v>
+      </c>
+      <c r="D12">
+        <v>0.04653094491062866</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.001949469783482504</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.00915102944544338</v>
+      </c>
+      <c r="C13">
+        <v>-0.06900782688147701</v>
+      </c>
+      <c r="D13">
+        <v>0.05761965084493421</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.0008461407419114354</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.001650468458644492</v>
+      </c>
+      <c r="C14">
+        <v>-0.04538786534468274</v>
+      </c>
+      <c r="D14">
+        <v>0.004018478267223076</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.000669251183893971</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.006105444897924715</v>
+      </c>
+      <c r="C15">
+        <v>-0.04206547276317207</v>
+      </c>
+      <c r="D15">
+        <v>0.02820766079721578</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.0007743319969553777</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.005180216267433043</v>
+      </c>
+      <c r="C16">
+        <v>-0.06512430949390194</v>
+      </c>
+      <c r="D16">
+        <v>0.04840913191850198</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.0002117640238312612</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.009106002262883861</v>
+      </c>
+      <c r="C20">
+        <v>-0.06563919082736128</v>
+      </c>
+      <c r="D20">
+        <v>0.04184722862151639</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.005916390933013143</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.010062825336924</v>
+      </c>
+      <c r="C21">
+        <v>-0.02113588220233326</v>
+      </c>
+      <c r="D21">
+        <v>0.03722959289148394</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01602303245634733</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.006584677245531142</v>
+      </c>
+      <c r="C22">
+        <v>-0.09389970435368045</v>
+      </c>
+      <c r="D22">
+        <v>0.1083109911607248</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.0163229519454068</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.006400673661299702</v>
+      </c>
+      <c r="C23">
+        <v>-0.09470979369345074</v>
+      </c>
+      <c r="D23">
+        <v>0.1083463700650773</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.001336899290089919</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.005638182656403502</v>
+      </c>
+      <c r="C24">
+        <v>-0.07641847169348823</v>
+      </c>
+      <c r="D24">
+        <v>0.0635299507070925</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.003987157305586445</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.003185335537320385</v>
+      </c>
+      <c r="C25">
+        <v>-0.07857210735561701</v>
+      </c>
+      <c r="D25">
+        <v>0.06678074486660901</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.004448629009441838</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003752105316780821</v>
+      </c>
+      <c r="C26">
+        <v>-0.0411586882843591</v>
+      </c>
+      <c r="D26">
+        <v>0.02327329305011595</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.004561795848253538</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.0007333424503526435</v>
+      </c>
+      <c r="C28">
+        <v>-0.1066077911119215</v>
+      </c>
+      <c r="D28">
+        <v>-0.3165291417977437</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.001289937335703371</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.003449519576727451</v>
+      </c>
+      <c r="C29">
+        <v>-0.05086616617625768</v>
+      </c>
+      <c r="D29">
+        <v>0.007318315972507415</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.003012244213305261</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.009675830732844636</v>
+      </c>
+      <c r="C30">
+        <v>-0.1417647939779893</v>
+      </c>
+      <c r="D30">
+        <v>0.09400426893724313</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.001122787553344972</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.00634207417511866</v>
+      </c>
+      <c r="C31">
+        <v>-0.04452961814223169</v>
+      </c>
+      <c r="D31">
+        <v>0.03114591298600971</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.0004880212207809304</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.004231795645782995</v>
+      </c>
+      <c r="C32">
+        <v>-0.04030852766671422</v>
+      </c>
+      <c r="D32">
+        <v>0.01903043601598047</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.002604142185673875</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.008644071299490292</v>
+      </c>
+      <c r="C33">
+        <v>-0.08647172716303984</v>
+      </c>
+      <c r="D33">
+        <v>0.06616990391593933</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.004474741183509867</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.004090778796570506</v>
+      </c>
+      <c r="C34">
+        <v>-0.05813471744546332</v>
+      </c>
+      <c r="D34">
+        <v>0.05409761424342135</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>-0.001358506905523697</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.005073921026023651</v>
+      </c>
+      <c r="C35">
+        <v>-0.04032967844701112</v>
+      </c>
+      <c r="D35">
+        <v>0.01642755869205777</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.003690458752397061</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.00107013604709199</v>
+      </c>
+      <c r="C36">
+        <v>-0.02454409538025871</v>
+      </c>
+      <c r="D36">
+        <v>0.02088978263173815</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.002544759751470946</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.00949532425804094</v>
+      </c>
+      <c r="C38">
+        <v>-0.03420953699521009</v>
+      </c>
+      <c r="D38">
+        <v>0.01418976049412794</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01140728395259259</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.0003401577614075204</v>
+      </c>
+      <c r="C39">
+        <v>-0.1156533318904235</v>
+      </c>
+      <c r="D39">
+        <v>0.07307227752399631</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.009447082565036976</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.002835810326331909</v>
+      </c>
+      <c r="C40">
+        <v>-0.09013057843294985</v>
+      </c>
+      <c r="D40">
+        <v>0.01048223138432294</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>1.299471333758059e-05</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007353645209919457</v>
+      </c>
+      <c r="C41">
+        <v>-0.03829101115820056</v>
+      </c>
+      <c r="D41">
+        <v>0.03577381561342188</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.00297828154172962</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.004164066259023266</v>
+      </c>
+      <c r="C43">
+        <v>-0.05351830183005895</v>
+      </c>
+      <c r="D43">
+        <v>0.02459397899401275</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.0044628274454315</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.003576625387051096</v>
+      </c>
+      <c r="C44">
+        <v>-0.1093866550199946</v>
+      </c>
+      <c r="D44">
+        <v>0.06593338984623949</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.001153002484588858</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.002312511413246014</v>
+      </c>
+      <c r="C46">
+        <v>-0.03323165829620999</v>
+      </c>
+      <c r="D46">
+        <v>0.03449809387921877</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.0002831121161789928</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.0028041384809611</v>
+      </c>
+      <c r="C47">
+        <v>-0.03746806173193166</v>
+      </c>
+      <c r="D47">
+        <v>0.02207709309891596</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.003882880778883084</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.006747874135069165</v>
+      </c>
+      <c r="C48">
+        <v>-0.03100461318626964</v>
+      </c>
+      <c r="D48">
+        <v>0.0321003969269514</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.01205652440393102</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01581397083759902</v>
+      </c>
+      <c r="C49">
+        <v>-0.1849996771630922</v>
+      </c>
+      <c r="D49">
+        <v>0.01682182536541866</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.001511977714184214</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.003733298468163198</v>
+      </c>
+      <c r="C50">
+        <v>-0.04346375022057102</v>
+      </c>
+      <c r="D50">
+        <v>0.03658293124173979</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.0008148488678864452</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.004494575584706947</v>
+      </c>
+      <c r="C51">
+        <v>-0.02595766765737272</v>
+      </c>
+      <c r="D51">
+        <v>0.02008904588596673</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.0008217129729328328</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.02129324748419767</v>
+      </c>
+      <c r="C53">
+        <v>-0.1695313208768505</v>
+      </c>
+      <c r="D53">
+        <v>0.02676586721826846</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.001027976961999074</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.008869659978628014</v>
+      </c>
+      <c r="C54">
+        <v>-0.0541698304990103</v>
+      </c>
+      <c r="D54">
+        <v>0.04378838613573548</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.003442467162887226</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.009841354806766135</v>
+      </c>
+      <c r="C55">
+        <v>-0.1092460271498158</v>
+      </c>
+      <c r="D55">
+        <v>0.03976997046943131</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.002612988241722505</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.02039695348626223</v>
+      </c>
+      <c r="C56">
+        <v>-0.1735497254315328</v>
+      </c>
+      <c r="D56">
+        <v>0.02226821166567007</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.006702245389207033</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.01988664163008659</v>
+      </c>
+      <c r="C58">
+        <v>-0.1119152821864752</v>
+      </c>
+      <c r="D58">
+        <v>0.04540539908712147</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.006463055864439883</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.01005122387460367</v>
+      </c>
+      <c r="C59">
+        <v>-0.164044773876555</v>
+      </c>
+      <c r="D59">
+        <v>-0.3237652514489557</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.003839638117258473</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.0245655961957894</v>
+      </c>
+      <c r="C60">
+        <v>-0.2225115195536116</v>
+      </c>
+      <c r="D60">
+        <v>0.03289944352577045</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01396868802407568</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.001558781426124302</v>
+      </c>
+      <c r="C61">
+        <v>-0.09484017201175872</v>
+      </c>
+      <c r="D61">
+        <v>0.05476618489246515</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.162918791409761</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.1452776095138678</v>
+      </c>
+      <c r="C62">
+        <v>-0.0940954911413443</v>
+      </c>
+      <c r="D62">
+        <v>0.04166265805732739</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.0005205915077128786</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.006419306890094189</v>
+      </c>
+      <c r="C63">
+        <v>-0.0548329089793546</v>
+      </c>
+      <c r="D63">
+        <v>0.02831521665608275</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>-0.000696419748435594</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01553148880802642</v>
+      </c>
+      <c r="C64">
+        <v>-0.1049063266207532</v>
+      </c>
+      <c r="D64">
+        <v>0.05812409905841574</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.002836749411064877</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.01835844818977292</v>
+      </c>
+      <c r="C65">
+        <v>-0.1245358584857007</v>
+      </c>
+      <c r="D65">
+        <v>0.02048996279795605</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.00747716472270338</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.01337123171955635</v>
+      </c>
+      <c r="C66">
+        <v>-0.1596705164708299</v>
+      </c>
+      <c r="D66">
+        <v>0.1111561280927836</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.00361848625279979</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.01573348735383869</v>
+      </c>
+      <c r="C67">
+        <v>-0.06507614410400313</v>
+      </c>
+      <c r="D67">
+        <v>0.02596341100782065</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.005913701004720646</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.0008112461812417534</v>
+      </c>
+      <c r="C68">
+        <v>-0.08681509179640591</v>
+      </c>
+      <c r="D68">
+        <v>-0.2604346963849669</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.001884388743540102</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.006333744787222327</v>
+      </c>
+      <c r="C69">
+        <v>-0.05050837387673394</v>
+      </c>
+      <c r="D69">
+        <v>0.04037689699178572</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>-7.647360705156648e-05</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.001844969820676238</v>
+      </c>
+      <c r="C70">
+        <v>-0.002708371094125233</v>
+      </c>
+      <c r="D70">
+        <v>0.001103931989882046</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>0.0001364509337942723</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.005907566508886177</v>
+      </c>
+      <c r="C71">
+        <v>-0.09428177936687779</v>
+      </c>
+      <c r="D71">
+        <v>-0.3065168562066276</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.004048912417920806</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01656274275052697</v>
+      </c>
+      <c r="C72">
+        <v>-0.1536195790365281</v>
+      </c>
+      <c r="D72">
+        <v>0.02211829570231046</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.01147299471674847</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.03148402597616758</v>
+      </c>
+      <c r="C73">
+        <v>-0.2803734676418639</v>
+      </c>
+      <c r="D73">
+        <v>0.05465314376586079</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.0047144652696953</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.002202447488353723</v>
+      </c>
+      <c r="C74">
+        <v>-0.1046149467008759</v>
+      </c>
+      <c r="D74">
+        <v>0.03569266784674623</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.002577868194818565</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.01124226655774983</v>
+      </c>
+      <c r="C75">
+        <v>-0.1244915371550662</v>
+      </c>
+      <c r="D75">
+        <v>0.02364093118128397</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.008925088525556289</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.02210187942501594</v>
+      </c>
+      <c r="C76">
+        <v>-0.1484610677922426</v>
+      </c>
+      <c r="D76">
+        <v>0.05855489941118144</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.001694108184393723</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02375660682945522</v>
+      </c>
+      <c r="C77">
+        <v>-0.1224980662754925</v>
+      </c>
+      <c r="D77">
+        <v>0.0902994961643932</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.0007112940603983877</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.0149659658585779</v>
+      </c>
+      <c r="C78">
+        <v>-0.09562184982561035</v>
+      </c>
+      <c r="D78">
+        <v>0.07075723525941341</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02311821870437697</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.03804078097732692</v>
+      </c>
+      <c r="C79">
+        <v>-0.1567337862182078</v>
+      </c>
+      <c r="D79">
+        <v>0.03144173898214628</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.006747048108032086</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.01043559521328242</v>
+      </c>
+      <c r="C80">
+        <v>-0.03987792868178985</v>
+      </c>
+      <c r="D80">
+        <v>0.02789853089952416</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.0005371623903343328</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.0155835468725365</v>
+      </c>
+      <c r="C81">
+        <v>-0.1266645410055551</v>
+      </c>
+      <c r="D81">
+        <v>0.03987310274677758</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.005591645163023402</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.02015609786823836</v>
+      </c>
+      <c r="C82">
+        <v>-0.141463713329143</v>
+      </c>
+      <c r="D82">
+        <v>0.03578062098135672</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.009604134494126828</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.01004329366389982</v>
+      </c>
+      <c r="C83">
+        <v>-0.05525759818827275</v>
+      </c>
+      <c r="D83">
+        <v>0.05160807716041987</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01340302541587638</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.01168230355819339</v>
+      </c>
+      <c r="C84">
+        <v>-0.03699049436248598</v>
+      </c>
+      <c r="D84">
+        <v>-0.00905650518389056</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01396612283449827</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.02855736464324982</v>
+      </c>
+      <c r="C85">
+        <v>-0.1241640355377345</v>
+      </c>
+      <c r="D85">
+        <v>0.0463514300019621</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.001448327670481956</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.005968036365130216</v>
+      </c>
+      <c r="C86">
+        <v>-0.04961896807678252</v>
+      </c>
+      <c r="D86">
+        <v>0.03026309962633305</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.003617784443900236</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.01035770883574617</v>
+      </c>
+      <c r="C87">
+        <v>-0.1282427366780485</v>
+      </c>
+      <c r="D87">
+        <v>0.07554128961022111</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01152179970148273</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.002798167106765408</v>
+      </c>
+      <c r="C88">
+        <v>-0.06498716004968909</v>
+      </c>
+      <c r="D88">
+        <v>0.01752877042378288</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01310265366764089</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.001032462330496013</v>
+      </c>
+      <c r="C89">
+        <v>-0.146668159609411</v>
+      </c>
+      <c r="D89">
+        <v>-0.3398953750464186</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.0005091706233789851</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.007233135411304241</v>
+      </c>
+      <c r="C90">
+        <v>-0.1206353625411291</v>
+      </c>
+      <c r="D90">
+        <v>-0.3195031985055724</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.0006420992073162725</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.01060641453522036</v>
+      </c>
+      <c r="C91">
+        <v>-0.1001712887968749</v>
+      </c>
+      <c r="D91">
+        <v>0.02132643056915854</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.007289509319298801</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.00126173818892998</v>
+      </c>
+      <c r="C92">
+        <v>-0.1351210058784001</v>
+      </c>
+      <c r="D92">
+        <v>-0.3275322746081074</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-2.221897235556672e-05</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.005136923263297924</v>
+      </c>
+      <c r="C93">
+        <v>-0.1049661117435366</v>
+      </c>
+      <c r="D93">
+        <v>-0.3016090069674848</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.003609834865959649</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.0228436222825184</v>
+      </c>
+      <c r="C94">
+        <v>-0.1463954075506933</v>
+      </c>
+      <c r="D94">
+        <v>0.05220824189393648</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.004907292142444875</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.01669352502582593</v>
+      </c>
+      <c r="C95">
+        <v>-0.1250117904079927</v>
+      </c>
+      <c r="D95">
+        <v>0.05676613929173374</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.001251417321689877</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.03685554246376736</v>
+      </c>
+      <c r="C97">
+        <v>-0.2143929651473336</v>
+      </c>
+      <c r="D97">
+        <v>0.001593796052979699</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>-0.003090025863238915</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.03728146680187656</v>
+      </c>
+      <c r="C98">
+        <v>-0.2496065733608046</v>
+      </c>
+      <c r="D98">
+        <v>0.04882002076211554</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9849551078405293</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9818780742507864</v>
+      </c>
+      <c r="C99">
+        <v>0.1190869022181452</v>
+      </c>
+      <c r="D99">
+        <v>-0.02709965854464308</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.001188735979246169</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.003487101190489568</v>
+      </c>
+      <c r="C101">
+        <v>-0.0510419833535778</v>
+      </c>
+      <c r="D101">
+        <v>0.00745887503827509</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
